--- a/2_Project/5. 대량 이메일 Auto (smtp)/Email_list.xlsx
+++ b/2_Project/5. 대량 이메일 Auto (smtp)/Email_list.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaverCloud\화랑\학습방\1. 파이썬\2_Project\5. 대량 이메일 Auto (smtp)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\화랑\python\2_Project\5. 대량 이메일 Auto (smtp)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820AFF9B-1137-4D29-BB83-7AE0723C16C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE50624-6209-460F-8F7A-A029D058294A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tolist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>hwarang-hr@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,13 +147,17 @@
   </si>
   <si>
     <t>박종철</t>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +180,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -205,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,8 +240,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,34 +533,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -537,8 +577,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="str">
+        <f>"2020년 10월 급여명세서 ("&amp;C2&amp;").pdf"</f>
+        <v>2020년 10월 급여명세서 (홍순형).pdf</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -551,8 +595,12 @@
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E32" si="0">"2020년 10월 급여명세서 ("&amp;C3&amp;").pdf"</f>
+        <v>2020년 10월 급여명세서 (조순희).pdf</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -565,8 +613,12 @@
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (조창성).pdf</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -579,8 +631,12 @@
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김영자).pdf</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -593,8 +649,12 @@
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (신점자).pdf</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -607,8 +667,12 @@
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김 영순).pdf</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -621,8 +685,12 @@
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김우진).pdf</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -635,8 +703,12 @@
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이승택).pdf</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -649,8 +721,12 @@
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김상훈).pdf</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -663,8 +739,12 @@
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이준서).pdf</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -677,8 +757,12 @@
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (박용).pdf</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -691,8 +775,12 @@
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (배화숙).pdf</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -705,8 +793,12 @@
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (유성금).pdf</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -719,8 +811,12 @@
       <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (차 재일).pdf</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -733,8 +829,12 @@
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (문 제문).pdf</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -747,8 +847,12 @@
       <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (장혜진).pdf</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -761,8 +865,12 @@
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (최란미).pdf</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -775,8 +883,12 @@
       <c r="D19" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김회원).pdf</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -789,8 +901,12 @@
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이채민).pdf</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -803,8 +919,12 @@
       <c r="D21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이찬숙).pdf</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -817,8 +937,12 @@
       <c r="D22" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김지혜).pdf</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -831,8 +955,12 @@
       <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (박은진).pdf</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -845,8 +973,12 @@
       <c r="D24" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이석주).pdf</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -859,8 +991,12 @@
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (윤병선).pdf</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -873,8 +1009,12 @@
       <c r="D26" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (조창학).pdf</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -887,8 +1027,12 @@
       <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (윤치경).pdf</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -901,8 +1045,12 @@
       <c r="D28" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (한상일).pdf</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -915,8 +1063,12 @@
       <c r="D29" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (이정섭).pdf</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -929,8 +1081,12 @@
       <c r="D30" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (박현민).pdf</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -943,8 +1099,12 @@
       <c r="D31" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (김인애).pdf</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -956,6 +1116,10 @@
       </c>
       <c r="D32" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>2020년 10월 급여명세서 (박종철).pdf</v>
       </c>
     </row>
   </sheetData>
